--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Practise\E2E_POM_Framework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="2055" windowWidth="13245" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13245" windowHeight="2055" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Database_TestData" r:id="rId1" sheetId="7"/>
-    <sheet name="Mobile_TestData" r:id="rId2" sheetId="6"/>
-    <sheet name="Web_TestData" r:id="rId3" sheetId="5"/>
-    <sheet name="test_suite" r:id="rId4" sheetId="1"/>
-    <sheet name="Sheet1" r:id="rId5" sheetId="4"/>
+    <sheet name="Database_TestData" sheetId="7" r:id="rId1"/>
+    <sheet name="Mobile_TestData" sheetId="6" r:id="rId2"/>
+    <sheet name="Web_TestData" sheetId="5" r:id="rId3"/>
+    <sheet name="test_suite" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>LoginTest</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Message</t>
   </si>
   <si>
-    <t>Simer Ji</t>
-  </si>
-  <si>
     <t>Hello</t>
   </si>
   <si>
@@ -160,50 +157,19 @@
     <t>D:\Selenium Practise\E2E_POM_Framework\target\surefire-reports\E2E POM Suite\LoginTest Test.html</t>
   </si>
   <si>
-    <t>05:51:06</t>
-  </si>
-  <si>
-    <t>05:51:55</t>
-  </si>
-  <si>
-    <t>Iteration 2.0 - Passed;null</t>
-  </si>
-  <si>
-    <t>06:39:46</t>
-  </si>
-  <si>
-    <t>06:40:05</t>
-  </si>
-  <si>
-    <t>06:46:04</t>
-  </si>
-  <si>
-    <t>06:46:23</t>
-  </si>
-  <si>
-    <t>06:48:49</t>
-  </si>
-  <si>
-    <t>06:49:04</t>
-  </si>
-  <si>
-    <t>07:40:55</t>
-  </si>
-  <si>
-    <t>07:41:09</t>
-  </si>
-  <si>
     <t>21:49:16</t>
   </si>
   <si>
     <t>21:49:34</t>
+  </si>
+  <si>
+    <t>How are you?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,41 +247,41 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -332,10 +298,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -370,7 +336,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,7 +371,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,7 +459,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -502,13 +468,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -518,7 +484,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -527,7 +493,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -536,7 +502,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -546,12 +512,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -582,7 +548,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -601,7 +567,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -613,8 +579,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -622,12 +588,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -691,27 +657,27 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="90" orientation="portrait" r:id="rId1" verticalDpi="90"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
@@ -746,16 +712,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
@@ -766,16 +732,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>18</v>
@@ -783,7 +749,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -812,10 +778,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>20</v>
@@ -829,10 +795,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>20</v>
@@ -846,27 +812,27 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:E6"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="90" orientation="portrait" r:id="rId1" verticalDpi="90"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="66.7109375" collapsed="true"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="66.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -906,7 +872,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -923,21 +889,21 @@
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="90" orientation="portrait" r:id="rId1" verticalDpi="90"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -945,12 +911,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.82421875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.53515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.6171875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="95.42578125" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="95.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -958,22 +924,22 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -981,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1004,7 +970,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1012,23 +978,23 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1061,6 +1027,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13245" windowHeight="2055" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13245" windowHeight="2055" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Database_TestData" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
   <si>
     <t>LoginTest</t>
   </si>
@@ -34,24 +34,6 @@
     <t>runmode</t>
   </si>
   <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>element</t>
-  </si>
-  <si>
-    <t>id=email</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -164,6 +146,21 @@
   </si>
   <si>
     <t>How are you?</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Executable</t>
+  </si>
+  <si>
+    <t>Module1</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Module2</t>
   </si>
 </sst>
 </file>
@@ -604,19 +601,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -624,16 +621,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -641,16 +638,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -679,7 +676,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -689,22 +686,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -712,19 +709,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -732,24 +729,24 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -758,19 +755,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -778,16 +775,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -795,16 +792,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -843,19 +840,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -863,16 +860,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -880,16 +877,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -903,88 +900,101 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="95.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="95.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -994,36 +1004,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Practise\E2E_POM_Framework\src\test\resources\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13245" windowHeight="2055" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5880" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Database_TestData" sheetId="7" r:id="rId1"/>
@@ -19,6 +14,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L17"/>
 </workbook>
 </file>
 
@@ -664,7 +660,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +882,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -902,7 +898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5880" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13245" windowHeight="2910" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Database_TestData" sheetId="7" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L17"/>
+  <oleSize ref="A1:F7"/>
 </workbook>
 </file>
 
@@ -814,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -898,7 +898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13245" windowHeight="2910" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5880" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Database_TestData" sheetId="7" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F7"/>
+  <oleSize ref="A1:L17"/>
 </workbook>
 </file>
 
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +882,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5880" firstSheet="1" activeTab="2"/>
+    <workbookView activeTab="3" firstSheet="1" windowHeight="5880" windowWidth="19320" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Database_TestData" sheetId="7" r:id="rId1"/>
-    <sheet name="Mobile_TestData" sheetId="6" r:id="rId2"/>
-    <sheet name="Web_TestData" sheetId="5" r:id="rId3"/>
-    <sheet name="test_suite" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="Database_TestData" r:id="rId1" sheetId="7"/>
+    <sheet name="Mobile_TestData" r:id="rId2" sheetId="6"/>
+    <sheet name="Web_TestData" r:id="rId3" sheetId="5"/>
+    <sheet name="test_suite" r:id="rId4" sheetId="1"/>
+    <sheet name="Sheet1" r:id="rId5" sheetId="4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L17"/>
+  <oleSize ref="A7:H23"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
   <si>
     <t>LoginTest</t>
   </si>
@@ -135,12 +135,6 @@
     <t>D:\Selenium Practise\E2E_POM_Framework\target\surefire-reports\E2E POM Suite\LoginTest Test.html</t>
   </si>
   <si>
-    <t>21:49:16</t>
-  </si>
-  <si>
-    <t>21:49:34</t>
-  </si>
-  <si>
     <t>How are you?</t>
   </si>
   <si>
@@ -157,12 +151,58 @@
   </si>
   <si>
     <t>Module2</t>
+  </si>
+  <si>
+    <t>AddCustomer</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>fName</t>
+  </si>
+  <si>
+    <t>lName</t>
+  </si>
+  <si>
+    <t>Kanwar</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>E130RL</t>
+  </si>
+  <si>
+    <t>06:47:56</t>
+  </si>
+  <si>
+    <t>06:48:13</t>
+  </si>
+  <si>
+    <t>Iteration 2.0 - Passed;null</t>
+  </si>
+  <si>
+    <t>06:54:50</t>
+  </si>
+  <si>
+    <t>06:55:06</t>
+  </si>
+  <si>
+    <t>Iteration 2.0 - Passed;Passed;null</t>
+  </si>
+  <si>
+    <t>06:55:07</t>
+  </si>
+  <si>
+    <t>06:55:27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,41 +280,45 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -291,10 +335,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -329,7 +373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,7 +408,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,7 +496,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -461,13 +505,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -477,7 +521,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -486,7 +530,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -495,7 +539,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -505,12 +549,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -541,7 +585,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -560,7 +604,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -572,8 +616,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -581,19 +625,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row customHeight="1" ht="15" r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -650,14 +694,14 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="90" orientation="portrait" r:id="rId1" verticalDpi="90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -665,20 +709,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row customHeight="1" ht="15" r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -734,20 +778,20 @@
         <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -805,36 +849,38 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:E6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="90" orientation="portrait" r:id="rId1" verticalDpi="90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="66.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="66.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row customHeight="1" ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -850,8 +896,9 @@
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -862,13 +909,14 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -884,33 +932,124 @@
       <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row customHeight="1" ht="15" r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:H6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="90" orientation="portrait" r:id="rId1" verticalDpi="90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="95.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.57421875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.53515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.6171875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="95.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -918,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>28</v>
@@ -944,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -956,10 +1095,10 @@
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
@@ -970,7 +1109,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -984,7 +1123,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -993,14 +1132,28 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1008,34 +1161,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
   <si>
     <t>LoginTest</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>06:55:27</t>
+  </si>
+  <si>
+    <t>12:37:01</t>
+  </si>
+  <si>
+    <t>12:37:20</t>
+  </si>
+  <si>
+    <t>12:37:22</t>
+  </si>
+  <si>
+    <t>12:37:43</t>
   </si>
 </sst>
 </file>
@@ -1095,10 +1107,10 @@
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="1" windowHeight="5880" windowWidth="19320" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="3510" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Database_TestData" r:id="rId1" sheetId="7"/>
-    <sheet name="Mobile_TestData" r:id="rId2" sheetId="6"/>
-    <sheet name="Web_TestData" r:id="rId3" sheetId="5"/>
-    <sheet name="test_suite" r:id="rId4" sheetId="1"/>
-    <sheet name="Sheet1" r:id="rId5" sheetId="4"/>
+    <sheet name="Database_TestData" sheetId="7" r:id="rId1"/>
+    <sheet name="Mobile_TestData" sheetId="6" r:id="rId2"/>
+    <sheet name="Web_TestData" sheetId="5" r:id="rId3"/>
+    <sheet name="test_suite" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A7:H23"/>
+  <oleSize ref="A1:E9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
   <si>
     <t>LoginTest</t>
   </si>
@@ -174,47 +174,16 @@
     <t>E130RL</t>
   </si>
   <si>
-    <t>06:47:56</t>
-  </si>
-  <si>
-    <t>06:48:13</t>
-  </si>
-  <si>
-    <t>Iteration 2.0 - Passed;null</t>
-  </si>
-  <si>
-    <t>06:54:50</t>
-  </si>
-  <si>
-    <t>06:55:06</t>
-  </si>
-  <si>
-    <t>Iteration 2.0 - Passed;Passed;null</t>
-  </si>
-  <si>
-    <t>06:55:07</t>
-  </si>
-  <si>
-    <t>06:55:27</t>
-  </si>
-  <si>
-    <t>12:37:01</t>
-  </si>
-  <si>
-    <t>12:37:20</t>
-  </si>
-  <si>
-    <t>12:37:22</t>
-  </si>
-  <si>
-    <t>12:37:43</t>
+    <t>05:58:00</t>
+  </si>
+  <si>
+    <t>05:58:20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -292,45 +261,45 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -347,10 +316,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -385,7 +354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,7 +389,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,7 +477,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -517,13 +486,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -533,7 +502,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -542,7 +511,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -551,7 +520,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -561,12 +530,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -597,7 +566,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -616,7 +585,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -628,8 +597,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -637,12 +606,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -706,14 +675,14 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="90" orientation="portrait" r:id="rId1" verticalDpi="90"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -721,12 +690,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -861,28 +830,28 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:E6"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="90" orientation="portrait" r:id="rId1" verticalDpi="90"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="66.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="66.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -946,7 +915,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row customHeight="1" ht="15" r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>44</v>
       </c>
@@ -1041,27 +1010,27 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A6:H6"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="90" orientation="portrait" r:id="rId1" verticalDpi="90"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.57421875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.53515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="17.6171875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="95.42578125" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="95.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1107,10 +1076,10 @@
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
@@ -1159,13 +1128,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1173,7 +1142,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1201,6 +1170,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Practise\E2E_POM_Framework\src\test\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="3510" firstSheet="1" activeTab="2"/>
+    <workbookView activeTab="3" windowHeight="3510" windowWidth="11025" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Database_TestData" sheetId="7" r:id="rId1"/>
-    <sheet name="Mobile_TestData" sheetId="6" r:id="rId2"/>
-    <sheet name="Web_TestData" sheetId="5" r:id="rId3"/>
-    <sheet name="test_suite" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="Database_TestData" r:id="rId1" sheetId="7"/>
+    <sheet name="Mobile_TestData" r:id="rId2" sheetId="6"/>
+    <sheet name="Web_TestData" r:id="rId3" sheetId="5"/>
+    <sheet name="test_suite" r:id="rId4" sheetId="1"/>
+    <sheet name="Sheet1" r:id="rId5" sheetId="4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="85">
   <si>
     <t>LoginTest</t>
   </si>
@@ -126,64 +130,161 @@
     <t>ExecutionEndTime</t>
   </si>
   <si>
+    <t>Result Link</t>
+  </si>
+  <si>
+    <t>How are you?</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Executable</t>
+  </si>
+  <si>
+    <t>Module1</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Module2</t>
+  </si>
+  <si>
+    <t>AddCustomer</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>fName</t>
+  </si>
+  <si>
+    <t>lName</t>
+  </si>
+  <si>
+    <t>Kanwar</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>E130RL</t>
+  </si>
+  <si>
+    <t>Iteration null - Skipped</t>
+  </si>
+  <si>
+    <t>14:58:40</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t>Iteration null - Skipped;Skipped</t>
+  </si>
+  <si>
+    <t>14:58:41</t>
+  </si>
+  <si>
+    <t>Iteration null - Passed</t>
+  </si>
+  <si>
+    <t>14:58:42</t>
+  </si>
+  <si>
+    <t>14:59:03</t>
+  </si>
+  <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>Result Link</t>
-  </si>
-  <si>
-    <t>D:\Selenium Practise\E2E_POM_Framework\target\surefire-reports\E2E POM Suite\LoginTest Test.html</t>
-  </si>
-  <si>
-    <t>How are you?</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Executable</t>
-  </si>
-  <si>
-    <t>Module1</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Module2</t>
-  </si>
-  <si>
-    <t>AddCustomer</t>
-  </si>
-  <si>
-    <t>postcode</t>
-  </si>
-  <si>
-    <t>fName</t>
-  </si>
-  <si>
-    <t>lName</t>
-  </si>
-  <si>
-    <t>Kanwar</t>
-  </si>
-  <si>
-    <t>Singh</t>
-  </si>
-  <si>
-    <t>E130RL</t>
-  </si>
-  <si>
-    <t>05:58:00</t>
-  </si>
-  <si>
-    <t>05:58:20</t>
+    <t>Iteration null - Passed;Passed</t>
+  </si>
+  <si>
+    <t>14:59:17</t>
+  </si>
+  <si>
+    <t>15:07:50</t>
+  </si>
+  <si>
+    <t>15:07:51</t>
+  </si>
+  <si>
+    <t>15:08:08</t>
+  </si>
+  <si>
+    <t>15:08:22</t>
+  </si>
+  <si>
+    <t>15:16:06</t>
+  </si>
+  <si>
+    <t>15:16:07</t>
+  </si>
+  <si>
+    <t>15:16:08</t>
+  </si>
+  <si>
+    <t>15:16:26</t>
+  </si>
+  <si>
+    <t>15:16:40</t>
+  </si>
+  <si>
+    <t>15:18:49</t>
+  </si>
+  <si>
+    <t>15:18:50</t>
+  </si>
+  <si>
+    <t>15:19:08</t>
+  </si>
+  <si>
+    <t>15:19:22</t>
+  </si>
+  <si>
+    <t>15:23:25</t>
+  </si>
+  <si>
+    <t>15:23:26</t>
+  </si>
+  <si>
+    <t>15:26:31</t>
+  </si>
+  <si>
+    <t>15:26:32</t>
+  </si>
+  <si>
+    <t>15:35:18</t>
+  </si>
+  <si>
+    <t>15:35:21</t>
+  </si>
+  <si>
+    <t>15:45:36</t>
+  </si>
+  <si>
+    <t>15:45:37</t>
+  </si>
+  <si>
+    <t>Iteration 1.0 - Passed;Passed</t>
+  </si>
+  <si>
+    <t>15:45:54</t>
+  </si>
+  <si>
+    <t>Iteration 2.0 - Passed;Passed</t>
+  </si>
+  <si>
+    <t>15:46:09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,45 +362,45 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -316,10 +417,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -354,7 +455,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,7 +490,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,7 +578,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -486,13 +587,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -502,7 +603,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -511,7 +612,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -520,7 +621,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -530,12 +631,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -566,7 +667,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -585,7 +686,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -597,8 +698,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -606,12 +707,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15" r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -675,14 +776,14 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="90" orientation="portrait" r:id="rId1" verticalDpi="90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -690,12 +791,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -759,7 +860,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
@@ -830,28 +931,28 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:E6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="90" orientation="portrait" r:id="rId1" verticalDpi="90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="66.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="66.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -915,9 +1016,9 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15" r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -938,13 +1039,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
@@ -964,13 +1065,13 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -990,13 +1091,13 @@
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1010,27 +1111,27 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A6:H6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="90" orientation="portrait" r:id="rId1" verticalDpi="90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="95.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.53515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.6171875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="95.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1038,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>28</v>
@@ -1056,15 +1157,15 @@
         <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -1073,16 +1174,13 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1090,7 +1188,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -1104,7 +1202,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -1115,26 +1213,35 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1142,34 +1249,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="90">
   <si>
     <t>LoginTest</t>
   </si>
@@ -278,6 +278,21 @@
   </si>
   <si>
     <t>15:46:09</t>
+  </si>
+  <si>
+    <t>18:19:08</t>
+  </si>
+  <si>
+    <t>18:19:11</t>
+  </si>
+  <si>
+    <t>18:19:12</t>
+  </si>
+  <si>
+    <t>18:19:34</t>
+  </si>
+  <si>
+    <t>18:19:50</t>
   </si>
 </sst>
 </file>
@@ -1177,10 +1192,10 @@
         <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1228,10 +1243,10 @@
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
